--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26323,7 +26325,7 @@
         <v>19400.90910273512</v>
       </c>
       <c r="F2" t="n">
-        <v>19400.90910273511</v>
+        <v>19400.90910273512</v>
       </c>
       <c r="G2" t="n">
         <v>19400.90910273512</v>
@@ -26341,7 +26343,7 @@
         <v>19400.90910273512</v>
       </c>
       <c r="L2" t="n">
-        <v>19400.90910273511</v>
+        <v>19400.90910273512</v>
       </c>
       <c r="M2" t="n">
         <v>19400.90910273512</v>
@@ -26531,28 +26533,28 @@
         <v>4850.227275683779</v>
       </c>
       <c r="F6" t="n">
-        <v>4850.227275683776</v>
+        <v>4850.227275683779</v>
       </c>
       <c r="G6" t="n">
         <v>4850.227275683779</v>
       </c>
       <c r="H6" t="n">
-        <v>4850.227275683783</v>
+        <v>4850.227275683779</v>
       </c>
       <c r="I6" t="n">
         <v>4850.227275683779</v>
       </c>
       <c r="J6" t="n">
-        <v>4850.227275683787</v>
+        <v>4850.227275683779</v>
       </c>
       <c r="K6" t="n">
         <v>4850.227275683779</v>
       </c>
       <c r="L6" t="n">
-        <v>4850.227275683776</v>
+        <v>4850.227275683779</v>
       </c>
       <c r="M6" t="n">
-        <v>4850.227275683783</v>
+        <v>4850.227275683779</v>
       </c>
       <c r="N6" t="n">
         <v>4850.227275683779</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51409.21470245528</v>
+        <v>-63008.05866432587</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>19400.90910273512</v>
       </c>
       <c r="C2" t="n">
-        <v>19400.90910273512</v>
+        <v>19400.90910273511</v>
       </c>
       <c r="D2" t="n">
-        <v>19400.90910273512</v>
+        <v>19400.90910273511</v>
       </c>
       <c r="E2" t="n">
         <v>19400.90910273512</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28777.37272431622</v>
+        <v>-30163.68529085659</v>
       </c>
       <c r="C6" t="n">
-        <v>-28777.37272431622</v>
+        <v>-30163.6852908566</v>
       </c>
       <c r="D6" t="n">
-        <v>-28777.37272431622</v>
+        <v>-30163.6852908566</v>
       </c>
       <c r="E6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="F6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="G6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="H6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="I6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="J6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="K6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="L6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="M6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="N6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="O6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143402</v>
       </c>
       <c r="P6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
     </row>
   </sheetData>
